--- a/data/trans_bre/P1805-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Habitat-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P1805-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37,42%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>154,24%</t>
         </is>
       </c>
     </row>
@@ -619,10 +678,30 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 6,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 3,24</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>179,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-10,87%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 3,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 1,37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 858,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-53,69; 83,2</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>105,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71,07%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 3,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 3,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 281,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 217,05</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>112,13%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29,25%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 3,8</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 367,88</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-36,05; 155,67</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>91,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 4,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 1,97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 219,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-31,76; 49,02</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>105,35%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 2,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 1,77</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>54,0; 184,07</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 61,48</t>
         </is>
       </c>
     </row>
@@ -938,11 +1217,11 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P1805-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
+          <t>122,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>154,24%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 6,3</t>
+          <t>-0,12; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,24</t>
+          <t>-1,78; 1,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,19 +698,19 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,44; 438,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,13; 92,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -730,12 +730,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>179,39%</t>
+          <t>105,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,87%</t>
+          <t>105,8%</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,5</t>
+          <t>0,37; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,37</t>
+          <t>0,43; 3,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 858,52</t>
+          <t>10,56; 281,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 83,2</t>
+          <t>13,37; 358,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>105,85%</t>
+          <t>112,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,14</t>
+          <t>0,12; 3,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,02</t>
+          <t>-2,95; 3,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 281,84</t>
+          <t>-2,79; 367,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 217,05</t>
+          <t>-51,89; 118,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>112,13%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>-3,84%</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,17</t>
+          <t>0,71; 4,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,8</t>
+          <t>-2,41; 1,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,19 +998,19 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 367,88</t>
+          <t>17,77; 219,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 155,67</t>
+          <t>-37,89; 43,97</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>105,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>23,38%</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,33</t>
+          <t>1,17; 2,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,97</t>
+          <t>-0,46; 1,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,124 +1098,24 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,77; 219,58</t>
+          <t>54,0; 184,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 49,02</t>
+          <t>-11,64; 69,52</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>105,35%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>22,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 2,74</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 1,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>54,0; 184,07</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 61,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P1805-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Habitat-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,2</t>
+          <t>0,14; 3,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,4</t>
+          <t>-1,82; 1,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 438,6</t>
+          <t>-3,49; 454,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,13; 92,88</t>
+          <t>-48,1; 100,72</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,14</t>
+          <t>0,44; 3,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,6</t>
+          <t>0,31; 3,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 281,84</t>
+          <t>15,73; 301,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 358,0</t>
+          <t>14,28; 376,97</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,17</t>
+          <t>0,16; 3,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,1</t>
+          <t>-2,99; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 367,88</t>
+          <t>3,15; 370,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-51,89; 118,73</t>
+          <t>-53,25; 111,02</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,33</t>
+          <t>0,61; 4,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,69</t>
+          <t>-2,52; 1,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 219,58</t>
+          <t>13,65; 216,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 43,97</t>
+          <t>-38,27; 47,93</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,74</t>
+          <t>1,13; 2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,78</t>
+          <t>-0,34; 1,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,0; 184,07</t>
+          <t>55,93; 190,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 69,52</t>
+          <t>-8,02; 71,06</t>
         </is>
       </c>
     </row>
